--- a/Measurements/1210 Noise analysis/Noise analysis overview.xlsx
+++ b/Measurements/1210 Noise analysis/Noise analysis overview.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rijk\Documents\MEP\MEP_control_software\Measurements\1210 Noise analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AF267-055F-4D5D-9A17-3ACEB3B09944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="20191216 Second proper meas" sheetId="2" r:id="rId1"/>
     <sheet name="20191210 First meas" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Noise analysis</t>
   </si>
@@ -127,12 +121,15 @@
   </si>
   <si>
     <t>Measure this one and #8 again</t>
+  </si>
+  <si>
+    <t>Outside main chmaber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,13 +190,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -215,9 +212,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -229,6 +226,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -254,7 +252,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -302,7 +300,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-E705-436B-90AC-60F07E0FE4E9}"/>
               </c:ext>
@@ -321,7 +319,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-E705-436B-90AC-60F07E0FE4E9}"/>
               </c:ext>
@@ -340,7 +338,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-E705-436B-90AC-60F07E0FE4E9}"/>
               </c:ext>
@@ -359,7 +357,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-E705-436B-90AC-60F07E0FE4E9}"/>
               </c:ext>
@@ -378,7 +376,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-E705-436B-90AC-60F07E0FE4E9}"/>
               </c:ext>
@@ -397,7 +395,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-E705-436B-90AC-60F07E0FE4E9}"/>
               </c:ext>
@@ -480,7 +478,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E705-436B-90AC-60F07E0FE4E9}"/>
             </c:ext>
@@ -496,11 +494,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="267210880"/>
-        <c:axId val="159903344"/>
+        <c:axId val="170499456"/>
+        <c:axId val="170517632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267210880"/>
+        <c:axId val="170499456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,10 +538,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159903344"/>
+        <c:crossAx val="170517632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -551,7 +549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159903344"/>
+        <c:axId val="170517632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,10 +597,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267210880"/>
+        <c:crossAx val="170499456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -616,14 +614,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -647,7 +645,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -659,9 +657,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -673,6 +671,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -698,7 +697,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -746,7 +745,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-6903-406F-81B8-BADD037BC43F}"/>
               </c:ext>
@@ -765,7 +764,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-6903-406F-81B8-BADD037BC43F}"/>
               </c:ext>
@@ -784,7 +783,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-6903-406F-81B8-BADD037BC43F}"/>
               </c:ext>
@@ -803,7 +802,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-6903-406F-81B8-BADD037BC43F}"/>
               </c:ext>
@@ -886,7 +885,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6903-406F-81B8-BADD037BC43F}"/>
             </c:ext>
@@ -902,11 +901,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="84907440"/>
-        <c:axId val="159922896"/>
+        <c:axId val="170877696"/>
+        <c:axId val="170879232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84907440"/>
+        <c:axId val="170877696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,10 +945,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159922896"/>
+        <c:crossAx val="170879232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -957,7 +956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159922896"/>
+        <c:axId val="170879232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,10 +1004,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84907440"/>
+        <c:crossAx val="170877696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1022,14 +1021,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1053,7 +1052,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2170,7 +2169,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87E57E2-55AB-43E0-8DC4-1EB6BAE95755}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D87E57E2-55AB-43E0-8DC4-1EB6BAE95755}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2205,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A597090B-76B2-46DB-B23D-3416C3D7C893}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A597090B-76B2-46DB-B23D-3416C3D7C893}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,34 +2227,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A2:G12" totalsRowShown="0">
-  <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:G12" totalsRowShown="0">
+  <autoFilter ref="A2:G12"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{080D63CD-5C8E-43EC-9D93-D4DF14CC2202}" name="2 or 4 point"/>
-    <tableColumn id="7" xr3:uid="{10D7312F-7E7A-4680-AF4F-5E0AD82CAD0B}" name="#"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Setup"/>
-    <tableColumn id="8" xr3:uid="{CCA65F2E-6AF6-41F8-90B8-5D08901E6DAD}" name="Name">
+    <tableColumn id="1" name="2 or 4 point"/>
+    <tableColumn id="7" name="#"/>
+    <tableColumn id="2" name="Setup"/>
+    <tableColumn id="8" name="Name">
       <calculatedColumnFormula>_xlfn.CONCAT(Table2[[#This Row],[2 or 4 point]],"_",Table2[[#This Row],['#]],"_",Table2[[#This Row],[Setup]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Mean"/>
-    <tableColumn id="9" xr3:uid="{4C7BD7B4-FCC7-4B7D-B4EA-8F7E46134B7F}" name="Absolute mean" dataDxfId="0">
+    <tableColumn id="5" name="Mean"/>
+    <tableColumn id="9" name="Absolute mean" dataDxfId="2">
       <calculatedColumnFormula>ABS(Table2[[#This Row],[Mean]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Std"/>
+    <tableColumn id="6" name="Std"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:E14" totalsRowShown="0">
-  <autoFilter ref="A3:E14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E14" totalsRowShown="0">
+  <autoFilter ref="A3:E14"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Setup"/>
-    <tableColumn id="5" xr3:uid="{03D8D5E2-5414-4055-AE6B-0CDB64B77C7F}" name="Sample Rate (Hz)" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{781F5189-915D-459A-B4FA-A001BF8D0038}" name="Meas Time (s)" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Mean"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Std"/>
+    <tableColumn id="2" name="Setup"/>
+    <tableColumn id="5" name="Sample Rate (Hz)" dataDxfId="1"/>
+    <tableColumn id="1" name="Meas Time (s)" dataDxfId="0"/>
+    <tableColumn id="3" name="Mean"/>
+    <tableColumn id="4" name="Std"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2304,7 +2303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2337,26 +2336,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2389,23 +2371,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2581,11 +2546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,6 +2571,9 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2894,7 +2862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
